--- a/Excel reports consolidation/Sales Results/SalesResults-2024-09-17.xlsx
+++ b/Excel reports consolidation/Sales Results/SalesResults-2024-09-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c12b539f5863eb1/Documentos/UiPath/Automation-Developer-Professional-Training/Excel reports consolidation/Sales Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{29F829AC-CF6C-46B9-9FD7-AC97374B67DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49F017EA-758F-4AAC-9870-D285C41D52E0}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{A1504764-C9DC-4DC2-B24B-C4A68BB6A8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2264033D-8E32-4874-B977-8424AD680DEC}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="1530" windowWidth="28800" windowHeight="11295" xr2:uid="{35A24C2E-F465-47B3-9804-5FDA8D55E941}"/>
+    <workbookView xWindow="8295" yWindow="1530" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{58EC1E5D-92D7-4EBB-9B18-AD9171DDCC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>FlatWhite</t>
   </si>
   <si>
     <t>Rótulos de Linha</t>
@@ -139,10 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,9 +223,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha2!$A$2:$A$12</c:f>
+              <c:f>Planilha2!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Americano</c:v>
                 </c:pt>
@@ -240,18 +242,21 @@
                   <c:v>Flat White</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>FlatWhite</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Hot Tea</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Iced Tea</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Latte</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Macchiato</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Mocha</c:v>
                 </c:pt>
               </c:strCache>
@@ -259,46 +264,49 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$B$2:$B$12</c:f>
+              <c:f>Planilha2!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>544</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>480</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>558</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>666</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>444</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.5</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>819</c:v>
+                  <c:v>381.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>738.5</c:v>
+                  <c:v>922.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>850.5</c:v>
+                  <c:v>745.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>877.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B36A-4F9A-9395-75FCF3A32E6B}"/>
+              <c16:uniqueId val="{00000000-1C1E-47EE-8AD8-697759BD447E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -357,23 +365,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB82C46-F98D-3C4D-E0B8-4DC319EF091A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E73A98-638C-5E6F-2BA2-FD008534A516}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -394,14 +402,18 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kalebe Abrantes" refreshedDate="45552.684814004628" createdVersion="1" refreshedVersion="8" recordCount="40" xr:uid="{96EC7CDC-C727-4710-A35B-5DCB9D5CE69F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kalebe Abrantes" refreshedDate="45552.696846412036" createdVersion="1" refreshedVersion="8" recordCount="40" xr:uid="{8F18FEF7-676D-4C29-AE41-D5CF145FC80D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D41" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Item" numFmtId="0">
-      <sharedItems count="10">
+      <sharedItems count="11">
         <s v="Espresso"/>
         <s v="Americano"/>
         <s v="Macchiato"/>
@@ -412,6 +424,7 @@
         <s v="Cold Brew"/>
         <s v="Hot Tea"/>
         <s v="Iced Tea"/>
+        <s v="FlatWhite"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Unit Price ($)" numFmtId="0">
@@ -497,6 +510,66 @@
   <r>
     <x v="0"/>
     <n v="3"/>
+    <n v="38"/>
+    <n v="114"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="27"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3.5"/>
+    <n v="24"/>
+    <n v="84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="35"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4.5"/>
+    <n v="45"/>
+    <n v="202.5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="4.5"/>
+    <n v="50"/>
+    <n v="225"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4.5"/>
+    <n v="16"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3.5"/>
+    <n v="22"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
     <n v="52"/>
     <n v="156"/>
   </r>
@@ -614,80 +687,21 @@
     <n v="10"/>
     <n v="35"/>
   </r>
-  <r>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="74"/>
-    <n v="222"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="23"/>
-    <n v="69"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="3.5"/>
-    <n v="22"/>
-    <n v="77"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="13"/>
-    <n v="52"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="4.5"/>
-    <n v="22"/>
-    <n v="99"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="4.5"/>
-    <n v="64"/>
-    <n v="288"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="4.5"/>
-    <n v="10"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="4"/>
-    <n v="22"/>
-    <n v="88"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="3"/>
-    <n v="31"/>
-    <n v="93"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="3.5"/>
-    <n v="20"/>
-    <n v="70"/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1197FB19-818D-46BA-84CF-707BB1F1403B}" name="SalesByStore" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
-  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6502C062-6B3B-42FA-BABE-6117568CD4F2}" name="SalesByStore" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
+  <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="11">
+      <items count="12">
         <item x="1"/>
         <item x="3"/>
         <item x="7"/>
         <item x="0"/>
         <item x="5"/>
+        <item x="10"/>
         <item x="8"/>
         <item x="9"/>
         <item x="4"/>
@@ -726,7 +740,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -756,6 +770,9 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -1106,10 +1123,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84F29B8-2E64-4EF1-97FF-0774785CD7FE}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E1EA7-0CBC-41CF-9E71-699D076FB73C}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1118,99 +1135,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>381.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>922.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>745.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>877.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>374.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>738.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>850.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5654.5</v>
+      <c r="B13">
+        <v>5637</v>
       </c>
     </row>
   </sheetData>
@@ -1220,11 +1245,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3934019-A8A8-4205-92B9-A5C9CD52089E}">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6F799F-8C80-4ADA-B4C4-63D64676214A}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,16 +1261,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1397,10 +1422,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,10 +1436,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,24 +1478,24 @@
         <v>4.5</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>4.5</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,10 +1506,10 @@
         <v>4.5</v>
       </c>
       <c r="C18">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>553.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,10 +1520,10 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,10 +1534,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,10 +1548,10 @@
         <v>3.5</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,10 +1562,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,10 +1590,10 @@
         <v>3.5</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>154</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,10 +1618,10 @@
         <v>4.5</v>
       </c>
       <c r="C26">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>603</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,10 +1632,10 @@
         <v>4.5</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>225</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,10 +1646,10 @@
         <v>4.5</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="D28">
-        <v>189</v>
+        <v>553.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,10 +1674,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,10 +1688,10 @@
         <v>3.5</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,10 +1702,10 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>222</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,10 +1730,10 @@
         <v>3.5</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,10 +1744,10 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,10 +1758,10 @@
         <v>4.5</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D36">
-        <v>99</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,10 +1772,10 @@
         <v>4.5</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>288</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,10 +1786,10 @@
         <v>4.5</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,10 +1800,10 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,10 +1814,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>93</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,9 +1828,149 @@
         <v>3.5</v>
       </c>
       <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>74</v>
+      </c>
+      <c r="D42">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>3.5</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>4.5</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>4.5</v>
+      </c>
+      <c r="C47">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>4.5</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>3.5</v>
+      </c>
+      <c r="C51">
         <v>20</v>
       </c>
-      <c r="D41">
+      <c r="D51">
         <v>70</v>
       </c>
     </row>
